--- a/raw.xlsx
+++ b/raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\xlsx-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BF41CD-A9F2-4D62-BC00-1ECBE6A99628}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133A5AA1-E7C3-4BB1-939D-EF659283B48F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11835" xr2:uid="{288411E7-67AA-4B5C-9E68-BA2438C94985}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{288411E7-67AA-4B5C-9E68-BA2438C94985}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,58 +25,181 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>lan 1</t>
-  </si>
-  <si>
-    <t>lan 2</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>bao cao</t>
-  </si>
-  <si>
-    <t>Loi Vi Pham</t>
-  </si>
-  <si>
-    <t>Tro Gia</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>KTG</t>
   </si>
   <si>
-    <t>Vi Pham</t>
-  </si>
-  <si>
-    <t>Xu Li Khac</t>
-  </si>
-  <si>
-    <t>So Lan</t>
-  </si>
-  <si>
-    <t>So Tien</t>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Lỗi vi phạm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mức xử lý 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="163"/>
+      </rPr>
+      <t>(đồng)</t>
+    </r>
+  </si>
+  <si>
+    <t>Vi 
+phạm</t>
+  </si>
+  <si>
+    <t>Mức xử lý khác kèm theo</t>
+  </si>
+  <si>
+    <t>Đợt 2/12/2018 đến đợt 1/10/2019</t>
+  </si>
+  <si>
+    <t>Trợ giá</t>
+  </si>
+  <si>
+    <t>Số lần</t>
+  </si>
+  <si>
+    <t>Số tiền
+(1000đ)</t>
+  </si>
+  <si>
+    <t>Bố trí phương tiện, lái xe NVPV 
+không đảm bảo đúng quy định</t>
+  </si>
+  <si>
+    <t>Lần 1</t>
+  </si>
+  <si>
+    <t>Lần 2</t>
+  </si>
+  <si>
+    <t>Báo cáo Sở GTVT 
+thu hồi phù hiệu</t>
+  </si>
+  <si>
+    <t>Xe hoạt động trên tuyến lạng lách, giành khách</t>
+  </si>
+  <si>
+    <t>ĐÌnh chỉ cá nhân 3 ngày</t>
+  </si>
+  <si>
+    <t>Đình chỉ cá nhân 5 ngày</t>
+  </si>
+  <si>
+    <t>Lần 3</t>
+  </si>
+  <si>
+    <t>ĐÌnh chỉ cá nhân 10 ngày</t>
+  </si>
+  <si>
+    <t>Chinh sach</t>
+  </si>
+  <si>
+    <t>Doi tuong</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Xyz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,15 +219,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{145669A3-A9F9-41F0-9F1C-211C0C56BC7C}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{66946722-718E-4689-95B2-6F8DE9225CD8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,105 +591,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585DFBC5-2CA2-4A57-9FD4-A29ACF534C58}">
-  <dimension ref="A3:H6"/>
+  <dimension ref="A2:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="5" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="7"/>
+    <col min="14" max="14" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:15" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I2" s="6"/>
+      <c r="N2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="132" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="14">
+        <v>5</v>
+      </c>
+      <c r="I4" s="15">
+        <v>10000</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="99" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12">
+        <v>200000</v>
+      </c>
+      <c r="E6" s="12">
+        <v>200000</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12">
+        <v>300000</v>
+      </c>
+      <c r="E7" s="12">
+        <v>300000</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12">
+        <v>400000</v>
+      </c>
+      <c r="E8" s="12">
+        <v>400000</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" ht="132" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I9" s="15">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="N9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" ht="99" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="12">
+        <v>200000</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12">
+        <v>300000</v>
+      </c>
+      <c r="E12" s="12">
+        <v>300000</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12">
+        <v>400000</v>
+      </c>
+      <c r="E13" s="12">
+        <v>400000</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="132" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>300</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="15">
+        <v>10000</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="99" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12">
+        <v>200000</v>
+      </c>
+      <c r="E16" s="12">
+        <v>200000</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="E17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12">
+        <v>400000</v>
+      </c>
+      <c r="E18" s="12">
+        <v>400000</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:15" ht="132" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>5</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14">
+        <v>5</v>
+      </c>
+      <c r="I19" s="15">
+        <v>10000</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" ht="99" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12">
+        <v>200000</v>
+      </c>
+      <c r="E21" s="12">
+        <v>200000</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="E22" s="12">
+        <v>300000</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12">
+        <v>400000</v>
+      </c>
+      <c r="E23" s="12">
+        <v>400000</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
